--- a/biology/Zoologie/Ardaris_eximia/Ardaris_eximia.xlsx
+++ b/biology/Zoologie/Ardaris_eximia/Ardaris_eximia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ardaris eximia est une espèce de lépidoptères de la famille des Hesperiidae, de la sous-famille des Pyrginae et de la tribu des Pyrrhopygini.
 </t>
@@ -511,14 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Ardaris eximia a été nommé par William Chapman Hewitson en 1871 sous le nom initial de Pyrrhopyga eximia[1].
-Nom vernaculaire
-Ardaris eximia se nomme Crystal-banded Skipper en anglais[2].
-Sous-espèces
-Ardaris eximia eximia
-Ardaris eximia hantra Evans, 1951[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ardaris eximia a été nommé par William Chapman Hewitson en 1871 sous le nom initial de Pyrrhopyga eximia.
+</t>
         </is>
       </c>
     </row>
@@ -543,10 +553,86 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ardaris eximia se nomme Crystal-banded Skipper en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ardaris_eximia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ardaris_eximia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ardaris eximia eximia
+Ardaris eximia hantra Evans, 1951.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ardaris_eximia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ardaris_eximia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ardaris eximia est un papillon au corps trapu marron aux flanc orangés. 
 Les ailes sont sur le dessus de couleur marron très foncé avec ailes antérieures antérieures une bande postdiscale et aux ailes postérieures une double bande nacrée orangé marquées de veines marron.
@@ -555,68 +641,111 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Ardaris_eximia</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ardaris_eximia</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ardaris eximia est présent au Venezuela.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Ardaris_eximia</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ardaris_eximia</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ardaris eximia est présent au Venezuela[1].
-Biotope
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 Ardaris eximia, sur Wikimedia CommonsArdaris eximia, sur Wikispecies
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ardaris_eximia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ardaris_eximia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
